--- a/tunbis/tunbis/computer_info.xlsx
+++ b/tunbis/tunbis/computer_info.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20409"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tunceli BT\Documents\GitHub\tunbis\tunbis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tunceli BT\Documents\GitHub\msakkaya\tunbis\tunbis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B0DFFE-B139-49EE-AC7D-A9F1B848055C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5568" xr2:uid="{A8173BAC-8268-4995-BFFF-B288926ED9A9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5565"/>
   </bookViews>
   <sheets>
     <sheet name="Computer Information" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Computer Name</t>
   </si>
@@ -117,9 +116,6 @@
     <t>RAM Slot Types</t>
   </si>
   <si>
-    <t>HP</t>
-  </si>
-  <si>
     <t>x64-based PC</t>
   </si>
   <si>
@@ -129,94 +125,61 @@
     <t>Disk #0, Bölüm #0</t>
   </si>
   <si>
-    <t>Samsung</t>
-  </si>
-  <si>
-    <t>TNC1BTEINT04</t>
-  </si>
-  <si>
-    <t>Dell Inc.</t>
-  </si>
-  <si>
-    <t>Precision 7920 Tower</t>
-  </si>
-  <si>
-    <t>Intel(R) Xeon(R) Silver 4116 CPU @ 2.10GHz</t>
-  </si>
-  <si>
-    <t>Radeon (TM) Pro WX 5100 Graphics</t>
-  </si>
-  <si>
-    <t>2.39.0</t>
-  </si>
-  <si>
-    <t>0RN4PJ</t>
-  </si>
-  <si>
-    <t>/F52X2S2/CNFCW0085U00BM/</t>
-  </si>
-  <si>
-    <t>162.162.5.12</t>
-  </si>
-  <si>
-    <t>SSDPEKKF256G8 NVMe INTEL 256GB</t>
-  </si>
-  <si>
-    <t>Disk #1, Bölüm #0</t>
-  </si>
-  <si>
-    <t>Microsoft Windows 10 Pro</t>
-  </si>
-  <si>
     <t>10.0.19045</t>
   </si>
   <si>
     <t>16.0.4266.1001</t>
   </si>
   <si>
-    <t>Hynix</t>
-  </si>
-  <si>
-    <t>TNCBTHINT04</t>
-  </si>
-  <si>
-    <t>HP ProBook 640 G2</t>
-  </si>
-  <si>
-    <t>Intel(R) Core(TM) i5-6300U CPU @ 2.40GHz</t>
-  </si>
-  <si>
-    <t>Intel(R) HD Graphics 520</t>
-  </si>
-  <si>
-    <t>N76 Ver. 01.57</t>
-  </si>
-  <si>
-    <t>80FD</t>
-  </si>
-  <si>
-    <t>PFKCT00WB416YA</t>
-  </si>
-  <si>
-    <t>162.162.5.114</t>
-  </si>
-  <si>
-    <t>SAMSUNG MZNLN256HMHQ-000H1</t>
-  </si>
-  <si>
     <t>Microsoft Windows 10 Enterprise</t>
   </si>
   <si>
     <t>network_used</t>
   </si>
   <si>
-    <t>Internet</t>
+    <t>TNC1MRKPER21</t>
+  </si>
+  <si>
+    <t>LENOVO</t>
+  </si>
+  <si>
+    <t>10FGS24Q00</t>
+  </si>
+  <si>
+    <t>PC0FA1C9</t>
+  </si>
+  <si>
+    <t>Intel(R) Core(TM) i5-6500 CPU @ 3.20GHz</t>
+  </si>
+  <si>
+    <t>Intel(R) HD Graphics 530</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FWKT54A  </t>
+  </si>
+  <si>
+    <t>SKYBAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    </t>
+  </si>
+  <si>
+    <t>10.62.112.64</t>
+  </si>
+  <si>
+    <t>HI-LEVEL Ultra Series 240GB</t>
+  </si>
+  <si>
+    <t>Ramaxel Technology</t>
+  </si>
+  <si>
+    <t>PolNet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -247,8 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
@@ -564,21 +526,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{767680BF-A0C0-4EBB-9122-AF1AFC6FE6C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7:AF8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="A1:Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -670,186 +633,132 @@
         <v>29</v>
       </c>
       <c r="AF1" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="1">
+        <v>4</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="1">
+        <v>8</v>
+      </c>
+      <c r="P2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S2" s="1">
+        <v>223.57</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="1">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="1">
-        <v>12</v>
-      </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1">
-        <v>64</v>
-      </c>
-      <c r="P2" s="1">
-        <v>4</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="W2" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="X2" s="1">
         <v>19045</v>
       </c>
       <c r="Y2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>20250225</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>31.2</v>
+      </c>
+      <c r="AB2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="Z2" s="1">
-        <v>20230515</v>
-      </c>
-      <c r="AA2" s="1">
-        <v>83.13</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="AC2" s="1">
-        <v>2666</v>
+        <v>2133</v>
       </c>
       <c r="AD2" s="1">
         <v>0</v>
       </c>
-      <c r="AF2" t="s">
-        <v>61</v>
+      <c r="AF2" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H3" s="2">
-        <v>2</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2">
-        <v>8</v>
-      </c>
-      <c r="P3" s="2">
-        <v>2</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="S3" s="2">
-        <v>238.47</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="X3" s="2">
-        <v>19045</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z3" s="2">
-        <v>20231130</v>
-      </c>
-      <c r="AA3" s="2">
-        <v>25.43</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC3" s="2">
-        <v>2133</v>
-      </c>
-      <c r="AD3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>61</v>
-      </c>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tunbis/tunbis/computer_info.xlsx
+++ b/tunbis/tunbis/computer_info.xlsx
@@ -137,43 +137,43 @@
     <t>network_used</t>
   </si>
   <si>
-    <t>TNC1MRKPER21</t>
-  </si>
-  <si>
-    <t>LENOVO</t>
-  </si>
-  <si>
-    <t>10FGS24Q00</t>
-  </si>
-  <si>
-    <t>PC0FA1C9</t>
-  </si>
-  <si>
-    <t>Intel(R) Core(TM) i5-6500 CPU @ 3.20GHz</t>
-  </si>
-  <si>
-    <t>Intel(R) HD Graphics 530</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FWKT54A  </t>
-  </si>
-  <si>
-    <t>SKYBAY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    </t>
-  </si>
-  <si>
-    <t>10.62.112.64</t>
-  </si>
-  <si>
-    <t>HI-LEVEL Ultra Series 240GB</t>
-  </si>
-  <si>
-    <t>Ramaxel Technology</t>
-  </si>
-  <si>
     <t>PolNet</t>
+  </si>
+  <si>
+    <t>TNC1MRKBTE03</t>
+  </si>
+  <si>
+    <t>Dell Inc.</t>
+  </si>
+  <si>
+    <t>OptiPlex SFF 7020</t>
+  </si>
+  <si>
+    <t>810J374</t>
+  </si>
+  <si>
+    <t>Intel(R) Core(TM) i5-14500</t>
+  </si>
+  <si>
+    <t>Intel(R) UHD Graphics 770</t>
+  </si>
+  <si>
+    <t>1.12.0</t>
+  </si>
+  <si>
+    <t>0CXR46</t>
+  </si>
+  <si>
+    <t>/810J374/CNFCW004A701FF/</t>
+  </si>
+  <si>
+    <t>10.62.112.61</t>
+  </si>
+  <si>
+    <t>2400A NVMe Micron 512GB</t>
+  </si>
+  <si>
+    <t>80CE000080CE</t>
   </si>
 </sst>
 </file>
@@ -529,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="A1:Q2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="AF3" sqref="AF3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,13 +638,13 @@
     </row>
     <row r="2" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -653,43 +653,40 @@
         <v>30</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H2" s="1">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="I2" s="1">
         <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O2" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="P2" s="1">
         <v>1</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="S2" s="1">
-        <v>223.57</v>
+        <v>48</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>31</v>
@@ -710,22 +707,22 @@
         <v>34</v>
       </c>
       <c r="Z2" s="1">
-        <v>20250225</v>
+        <v>20230623</v>
       </c>
       <c r="AA2" s="1">
-        <v>31.2</v>
+        <v>13.14</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AC2" s="1">
-        <v>2133</v>
+        <v>5600</v>
       </c>
       <c r="AD2" s="1">
         <v>0</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">

--- a/tunbis/tunbis/computer_info.xlsx
+++ b/tunbis/tunbis/computer_info.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Computer Name</t>
   </si>
@@ -140,40 +140,37 @@
     <t>PolNet</t>
   </si>
   <si>
-    <t>TNC1MRKBTE03</t>
-  </si>
-  <si>
-    <t>Dell Inc.</t>
-  </si>
-  <si>
-    <t>OptiPlex SFF 7020</t>
-  </si>
-  <si>
-    <t>810J374</t>
-  </si>
-  <si>
-    <t>Intel(R) Core(TM) i5-14500</t>
-  </si>
-  <si>
-    <t>Intel(R) UHD Graphics 770</t>
-  </si>
-  <si>
-    <t>1.12.0</t>
-  </si>
-  <si>
-    <t>0CXR46</t>
-  </si>
-  <si>
-    <t>/810J374/CNFCW004A701FF/</t>
-  </si>
-  <si>
-    <t>10.62.112.61</t>
-  </si>
-  <si>
-    <t>2400A NVMe Micron 512GB</t>
-  </si>
-  <si>
-    <t>80CE000080CE</t>
+    <t>TNC1PRTASY10</t>
+  </si>
+  <si>
+    <t>LENOVO</t>
+  </si>
+  <si>
+    <t>10MLS2BX00</t>
+  </si>
+  <si>
+    <t>PC0P5RF7</t>
+  </si>
+  <si>
+    <t>Intel(R) Core(TM) i5-7500 CPU @ 3.40GHz</t>
+  </si>
+  <si>
+    <t>Intel(R) HD Graphics 630</t>
+  </si>
+  <si>
+    <t>M1AKT59A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    </t>
+  </si>
+  <si>
+    <t>10.62.78.185</t>
+  </si>
+  <si>
+    <t>WDC WD5000AZLX-08K2TA0</t>
+  </si>
+  <si>
+    <t>Samsung</t>
   </si>
 </sst>
 </file>
@@ -530,7 +527,7 @@
   <dimension ref="A1:AF3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="AF3" sqref="AF3"/>
+      <selection activeCell="H2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,7 +656,7 @@
         <v>42</v>
       </c>
       <c r="H2" s="1">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I2" s="1">
         <v>0</v>
@@ -670,23 +667,26 @@
       <c r="K2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="1">
+        <v>3106</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="O2" s="1">
+        <v>8</v>
+      </c>
+      <c r="P2" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O2" s="1">
-        <v>16</v>
-      </c>
-      <c r="P2" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="R2" s="1" t="s">
-        <v>48</v>
+      <c r="S2" s="1">
+        <v>465.76</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>31</v>
@@ -710,19 +710,22 @@
         <v>20230623</v>
       </c>
       <c r="AA2" s="1">
-        <v>13.14</v>
+        <v>9.39</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AC2" s="1">
-        <v>5600</v>
+        <v>2400</v>
       </c>
       <c r="AD2" s="1">
         <v>0</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>37</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
